--- a/biology/Botanique/Liste_des_espèces_végétales_légalement_protégées_en_Belgique/Liste_des_espèces_végétales_légalement_protégées_en_Belgique.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_légalement_protégées_en_Belgique/Liste_des_espèces_végétales_légalement_protégées_en_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_l%C3%A9galement_prot%C3%A9g%C3%A9es_en_Belgique</t>
+          <t>Liste_des_espèces_végétales_légalement_protégées_en_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de la mise en application le 12 juillet 1973 de la Loi sur la Conservation de la Nature[1] et de l’Arrêté royal du 16 février 1976 relatif aux mesures de protection en faveur de certaines espèces végétales croissant à l’état sauvage[2] - Arrêté abrogé par le décret du 6 décembre 2001[3] - sont 124 espèces de plantes, dont de nombreuses orchidées et d’autres espèces à fleurs décoratives, légalement protégées en Belgique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la mise en application le 12 juillet 1973 de la Loi sur la Conservation de la Nature et de l’Arrêté royal du 16 février 1976 relatif aux mesures de protection en faveur de certaines espèces végétales croissant à l’état sauvage - Arrêté abrogé par le décret du 6 décembre 2001 - sont 124 espèces de plantes, dont de nombreuses orchidées et d’autres espèces à fleurs décoratives, légalement protégées en Belgique.
 Cet arrêté royal comporte trois annexes :
 Annexe A : interdiction de cueillir, de déplanter, d'endommager ou de détruire dans la nature la plante ou une de ses parties
 Annexe B : comme pour l'annexe A, en ce qui concerne les parties souterraines de la plante, jusques et y compris la base de la tige
 Annexe C : interdiction d'arracher ou de récolter la plante dans la nature à des fins commerciales ou industrielles
-Les espèces suivies d’un point d’interrogation (?) ne sont plus avec certitude encore présentes en Belgique, celles suivies d’une croix (†) sont éteintes[4]. 
+Les espèces suivies d’un point d’interrogation (?) ne sont plus avec certitude encore présentes en Belgique, celles suivies d’une croix (†) sont éteintes. 
 Liste des espèces végétales légalement protégées en Belgique
 </t>
         </is>
